--- a/Reddit_p3.xlsx
+++ b/Reddit_p3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="171">
   <si>
     <t>text</t>
   </si>
@@ -34,478 +34,499 @@
     <t>topic_BLM</t>
   </si>
   <si>
-    <t>So the US initiated the conflict on August 2, then lied and said something happened on August 4 so they could start a war. In general I'm pretty disgusted by US behavior. Genocide here, self righteous wars there. I feel bad for everyone still blinded by the propaganda. We did some good things in the past but from my learning it appears all the good deeds were to cloak the bad. I really hope millennials and gen z do a better job of governing.</t>
-  </si>
-  <si>
-    <t>Wow. That's amazing.  I hope the journey you have gives you the strength of character to stave off any bad influences when you get elected! I have done small leadership things and it is extremely rewarding. The sense of power I had intimidated me ever step of the way. In the end I was really happy I left that role before I became problematic so I don't know how I would behave in a long term situation yet. But I hope I do. I know I have the skills and grit to do long term leader things. All the best. Work hard! Don't give up! â¥ï¸</t>
-  </si>
-  <si>
-    <t>Holy wow, thatâs an incredible accounting. I think I would feel the same anger myself. Itâs hard when people who are supposed to be for the public safety make you feel so violated. Hard to wrap your mind around tbh. Caregiver fatigue is what you are referencing when you say âI wanted to do more, but I couldnât handle it for a long period of timeâ, in my opinion. Caring, in general, in the face of such cruelty will definitely drain an empathetic person rather quickly. I ran an animal rescue for a couple years ago, and that definitely prepared me for the difficulty of this. I seem to have the ability to deal with almost anything as long as Iâm feeling like Iâm doing something about it. If Iâm sitting still the cruelty hurts me *far* more â I get stagnant and frustrated. My involvement in the project is what saves me. The team is legitimately such a positive influence in my life that Iâm grateful to be in such a positive environment, surrounded by like-minded people. This is what you might be looking for, like-minded people in a positive environment. But still, we all take our breaks when we need to, bc teamwork!</t>
-  </si>
-  <si>
-    <t>Thanks! In a certain sense, they'll have to do better than us.  They're going to have to sink or swim along with their entire generation that inherits an over-populated and possibly dying planet.I wish you the best!</t>
-  </si>
-  <si>
-    <t>&gt;Unlawful assembly&gt;Fleeing or evading policeWell, which is it? Do I stay or do I go?? Damned if you do, damned if you donât I guess</t>
-  </si>
-  <si>
-    <t>We're going to need a Bastille Day if they follow through with prison sentences every time someone gets caught up at a protest</t>
-  </si>
-  <si>
-    <t>In Louisville, KY a public assembly of more than just a few people requires a permit to be lawful. This is normal in most cities. It has a lot to do with ensuring the safety of the group and anyone else in the area.</t>
-  </si>
-  <si>
-    <t>Right? And if she gets convicted, that can have detrimental effects on her for the rest of her life. I'm hoping everything gets dropped. I'll continue to pay attention and if I see or hear anything I'll post.</t>
-  </si>
-  <si>
-    <t>The bad part is the officer writing the citations gets a hard on while doing so. Imagine this ruining your career.  Some cops take it upon themselves to call your job to inform them of your arrest.  *Cops, ruining one protesters life at a time.* Remember this next time you see one of these fuckers cutting in line and getting free coffee at Starbucks.  Any gratuities for that matter should stop.</t>
-  </si>
-  <si>
-    <t>Just watched V for Vendetta the other night, and it's scary how relevant it feels now (more than when it originally came out)</t>
-  </si>
-  <si>
-    <t>The man on the loudspeaker told them to "immediately and peacefully disperse."She did not immediately and peacefully disperse. No one did. The officers gave them the chance to leave without being arrested and nobody moved. The officers then did their little chant thing before approaching the people that were told to disperse but didn't.Immediately does not mean over half a minute later.Peacefully does not mean sprint away and yell "shit". lol</t>
-  </si>
-  <si>
-    <t>Some jobs like teachers will put you on administrative leave with a felony arrest pending trial.  If you donât have tenure or a union itâs unpaid leave or even termination.</t>
-  </si>
-  <si>
-    <t>There is a community bail fund for Louisville. [Here is the link to donate.](https://www.actionnetwork.org/fundraising/louisville-community-bail-fund-2) We are fortunate to have legal aid from pro bono operating attorneys and other forms of community support for protestors (safe transportation, replacements for confiscated cell phones, etc).</t>
-  </si>
-  <si>
-    <t>I could tell you a story or 2 as well. I'm from Europe, though. If that incident affects you in your daily life, please see a therapist. I denied my own trauma for over 3 years and you might not notice the implications this has on your mind and life at first, but they will show. PM me if you'd like to talk.</t>
-  </si>
-  <si>
-    <t>I was born in Massena. The mall is almost dead these days. I don't live in Massena currently, but it has gotten bad with pills and other narcotics. You still hear about smuggling, but these days it seems to be more human trafficking. It is craziness. I live out between Canton and Gouverneur now, its relatively quiet out this way. This incident I wrote about happened in Heuvelton.</t>
-  </si>
-  <si>
-    <t>I propose financial civil disobedience.  If we stop paying our bills, taxes and other forms of debt bondage it would force a reordering of terms I believe.  We canât win a physical war with the police/military complex.  Theyâre just too well equipped regardless of being outnumbered. Stop paying bills folks, nothing is going to be ok.</t>
-  </si>
-  <si>
-    <t>This, for sure. When the checks stop coming, they'll understand we mean business.Also, stop the trucks. When goods stop moving, EVERYONE is affected.</t>
-  </si>
-  <si>
-    <t>Excellent. I hope we can work together to make something that is just as powerful as what we've got here, just a little more polished. His message is... well, I think it's exactly what we need.</t>
-  </si>
-  <si>
-    <t>We need a viable plan, something The People can get-on-board with.Expanding on this, and realizing you already said it, we need a Call to Action.  But that call cannot just be a demand for "change", it must be backed by a solid plan for *how* we win, *and* what *winning* will actually mean.  What are the specific changes that are necessary? What self evident truths will we promulgate?</t>
-  </si>
-  <si>
-    <t>As i wrote elsewhere.The training is too short, it looks like they spend all their training with "John rambo" who teach them to fight, and they never spend the necessary 12 Months with the "Supernanny" who could teach them how they deescalate a situation</t>
-  </si>
-  <si>
-    <t>&gt;back child supportJust a minor nitpick, doesnât invalidate your post, but nobody should be arrested for failure to pay child support. Itâs the modern day equivalent of a debtors prison. Not to mention that the money spent tracking down and incarcerating child support debtors would be much better spent on the families who need the child support in the first place.</t>
-  </si>
-  <si>
-    <t>Ok fair enough. I didnât spend any time looking at your profile so sorry for a the snap judgement. I was trying to make the point that in the world of trolling I think youâre asking a good faith question. I read your other reply and it appears we agree that a citation/ticket could be a solution if identification can be ascertained.</t>
-  </si>
-  <si>
-    <t>Agreed, good on OP for at least thinking through the problem and coming up with possible alternatives. Don't get why they got downvoted for that</t>
-  </si>
-  <si>
-    <t>I meant the police they couldn't touch me, by using your logic I can just walk away with my new tv and all they could do is ask me politely not to</t>
-  </si>
-  <si>
-    <t>Np, but even then it always comes back to what if they refuse to comply. âPut your hands behind your backââNoââOK then I need to see some ID and I will write you a ticketââI donât have my ID or no you canât have itâHere we go again....Seems like we would have to start chipping people but that comes with a whole other bag of worst things. At the end of the day it always boils down to violence no matter how minor the infraction if the person says no enough, things have to come to a head. After all the rightful protests are done and reform comes we still always have to deal with this fact and I think it will always be a problem.</t>
-  </si>
-  <si>
-    <t>I'm trolling but I'm making a point, you made a point you're not aware of tho. You've almost cracked open this whole thing tbh</t>
-  </si>
-  <si>
-    <t>The cops wouldnât be at the store when you are stealing the item though, they would be called after you leave the building with the item, because until that point, the store can **not** accuse theft.You leave with the item, store calls cops, cops review video and obtain license plate info and then either show up at your house or there is a resting warrant and the next time they stop you they take you in. No force needed.</t>
-  </si>
-  <si>
-    <t>I donât think you have to find a bunch of new people to do this job. There are already other workers â social workers, paramedics, unarmed administrative city and county officials â that can already do a large percentage of what weâre tasking police with.  And a lot of the enforcement, namely nonviolent drug violations can safely go unenforced.</t>
-  </si>
-  <si>
-    <t>I truly hope youâre right and that we can do this. I think if the heart is in the right place some intention will get through and will be OK. Cheers man.</t>
-  </si>
-  <si>
-    <t>So I watched this on my phone. I thought there would be a voice that I couldnât hear, so I turned up the volume to max. It has only his heartbeat, and at first I couldnât hear it, but I noticed it from the slight vibration it sent up my phone case. I could actually feel the change in heartbeat of a heart struggling for oxygen. Even though his lungs couldnât gulp air, his heart was trying to. Itâs such a small difference, the beat changes slightly and the sound ever so lightly increases. And then it just stops. Thanks for the barrel of cut onions. Seriously though, thank you for taking the time to put this together.</t>
-  </si>
-  <si>
-    <t>They know it might, but they don't care. One less undesirable in the world and they won't face any consequences (let's hope this doesn't end up being the case here).</t>
-  </si>
-  <si>
-    <t>We're all crying here, friend. Crying out in pain and injustice at the system, in tears and sadness at the losses and violence. Take care of yourself. Please.</t>
-  </si>
-  <si>
-    <t>You did an amazing job. I hope your animation goes viral, gets shown on police academies so the new officers see what it does to a person. This way of restriction must be forbidden everywhere.</t>
-  </si>
-  <si>
-    <t>Thank you, hardleft121, for voting on VredditDownloader.This bot wants to find the best and worst bots on Reddit. [You can view results here](https://botrank.pastimes.eu/).***^(Even if I don't reply to your comment, I'm still listening for votes. Check the webpage to see if your vote registered!)</t>
-  </si>
-  <si>
-    <t>No problem, I appreciate your politeness. Also, it seems to me like there are an entire 7 pixels of another officer on Floydâs back, but I guess even one officer should have been enough to realize itâs a bad idea.</t>
-  </si>
-  <si>
-    <t>Actually, theyâre in the lab currently adding a tag function. I will make a post here once thatâs updated, that way the front end devs will know what to expect.</t>
-  </si>
-  <si>
-    <t>Omg that ending hit me so hard. The two lines that got me were, âItâs not ours. We donât own anything.â And âThey are lucky that what black people are looking for is equality and not revenge.â</t>
-  </si>
-  <si>
-    <t>It was funny for the first few times but it got stale after a while. He has brought it too many times by now.</t>
-  </si>
-  <si>
-    <t>When an employee of a normal business screws up on the clock the business owner is typically held accountable in addition to the employee, especially in legal cases, why are we treating these police differently?</t>
-  </si>
-  <si>
-    <t>It's not yet. But ifs a clear lack of care for human life which will only get worse if we dont act</t>
-  </si>
-  <si>
-    <t>Seriously? Just open your eyes and your ears. Iâm glad someone was able to provide some sources for you and those who think like you. If simply being alive right now isnât enough for you to realize that this is an ongoing issue, I truly hope you take the time to read the sources provided. I donât mean this to be rude in any way but please donât let yourself continue to be ignorant.</t>
-  </si>
-  <si>
-    <t>It's not, if you would have any clue of history you would know it is dozens of small jumps, and the US has already done several of them. But ye educating yourself sure is hard, I know school in the US sucks hard but that is no excuse in the long run on important topics like these.</t>
-  </si>
-  <si>
-    <t>I got banned from there for saying something similar but about McConnell and saying something about how much better the world would be for it, can't remember exactly how I phrased it. Good to know I'm not alone on this I guess. Should we all go and start /r/PermabannedFromPolitics now?</t>
-  </si>
-  <si>
-    <t>The people who care about both issues are less than the people who care about one issue. If you start with 100000 people who care about the current issue, and then you tack on another issue, the people who don't agree with that will leave.That's how it works and it ruins every protest movement.</t>
-  </si>
-  <si>
-    <t>The only simple one I can think of is doing like the K pop fans did and hijack the all lives crowd. I think yours is better in its message though, even if it is long.</t>
-  </si>
-  <si>
-    <t>Thank you for your support. I've set up a robo call service that calls over 100 PDs every 15 minutes. And according to the report they've sent me, both Dallas Central and SW are picking up with a live person on the line. So they're hearing my message and they're hearing yours. Let's keep it going.</t>
-  </si>
-  <si>
-    <t>From what I have read, due to the âqualified immunity â rule, the officers are shielded from this personally and all monies are footed by taxpayer funds.</t>
-  </si>
-  <si>
-    <t>You have until July 15 to file for taxes this year.While a wide spread movement could have some impact, I strongly advise against fucking with the IRS because they're the same thugs but going straight for your account.There are however many ways you can reduce the amount you owe, or preemptively reassign some money to a cause that makes sense, like the ACLU. It won't be enough for sustained change, but it will reduce (slightly) the amount the government gets from you, and will put money in hands of people who will actually fight to protect uour human rights..</t>
-  </si>
-  <si>
-    <t>I'd say for most cities its typically covered in whatever insurance they carry. If the city is self insured, it all depends on how they budget for liabilities. They might have a fund with X amount of dollars for any contingency, or they might have to pull it from other funding.</t>
-  </si>
-  <si>
-    <t>Nah. We donât need police. Defund them and put that money to use somewhere else. There are other institutions that can serve the public.</t>
+    <t>The length of this list alone is disturbing, and makes me ashamed not only to be American, but to be human.</t>
+  </si>
+  <si>
+    <t>Where the fuck are you people coming from with this "qualified immunity " BS? it's not relevant. Tell your boss to quit making you push that angle.</t>
+  </si>
+  <si>
+    <t>The bright side is if it continues to escalate it may hit a point of no return and then maybe things will actually change.  It's just disappointing that things are turning out this way and so many are falling victim to police brutality.</t>
+  </si>
+  <si>
+    <t>Explains why I see so many un-fit looking people in a job that seems like it would be easier to do if one was fitter.</t>
+  </si>
+  <si>
+    <t>From a Canadian's personal stand point.  This project is extremely important. People done forget easily, and this is something that should be remembered, and will be talked about for a very long time.   You guys are doing a great job.  Keep it up!</t>
+  </si>
+  <si>
+    <t>Is there any way money can help? I'm an American abroad, infuriated, and I wish I could hop on a flight and join the crowds but my country's still on lockdown. If a website needs hosting paid for or supplies need bought or anything along those lines please let me know.</t>
+  </si>
+  <si>
+    <t>Best of wishes from germany, I really hope for this to make a difference. Seeing all this violence is depressing, but it has to be seen for people to understand how bad things really are. Because I think there are many people who hear "police violence" and think "meh, probably because the protesters got violent first" or "that's just isolated incidents". Best of luck to you!</t>
+  </si>
+  <si>
+    <t>Keep doing your best. Ive been trying to spread the name of the sub and the github when I see posts that dont have it already, your doing an amazing job and I really hope this can lead to some sort of lasting change with all of this documented work compiled together.</t>
+  </si>
+  <si>
+    <t>I almost tear and choke when I found this post and see what you guys are doing. Please keep up the good works. You guys are the future, the pillars of this country. THANK YOU</t>
+  </si>
+  <si>
+    <t>Why is a supermod a moderator in this sub? He or she is a moderator in 125+ subreddits, there is no way they have the time to make any decisions, unless they get paid for it.</t>
+  </si>
+  <si>
+    <t>American here, and You and the team have all my support love and encouragement. Keep this going you are important to our nation</t>
+  </si>
+  <si>
+    <t>I can edit videos too. I also am an assistant editor and typically we deal with information/media management and organization to make editors' jobs easier.</t>
+  </si>
+  <si>
+    <t>I sincerely mean it. I consider myself lucky to still have my full salary as a teacher here in Peru, and actually with the lockdown I'm saving time from going to and from work and using that to generate extra income. So I have some to spare, and this cause is absolutely worth it to me. Feel free to reach out to me via pm and I'll be happy to contribute what I can if it will spread these messages and hopefully help real justice occur.</t>
+  </si>
+  <si>
+    <t>Really good points and you hit on some of my fears as well. Thanks for your input, I've been feeling so helpless and I want to stay focused on positive change.</t>
+  </si>
+  <si>
+    <t>That and lazyiness. I saw a chart here (sorry on mobile) watching brutality spread like a social disease. The pricks you are talking about infect a new precinct and show the locals how easy it is to "dominate" the public. Don't bother with all that social work crap, spray, beat, lie, plant evidence so you can clock out on time and get to the bar with your friends.Most normal, adjusted human beings can see that cutting corners when lives are on the line is f**king sick and wrong. This ain't a zoom meeting where you turn off your camera and surf the web.  Lives are destroyed bc of at worst creuality and at best lazyiness...My personal thoughts..</t>
+  </si>
+  <si>
+    <t>Sounds like if there's anything you'd like to say to the NSA you can just say it here! So here goes for me! Hello NSA Agent. You might think you're a hero. That you're on the side of good. That you're protecting the people. I'm sorry, but you're not. You're alongside all the monsters posted on this sub. Anything you do against the people is in service to these atrocities.</t>
+  </si>
+  <si>
+    <t>And this is why I tend to address these fucks head on every time I post to basic social media. We know theyâre watching all of this, I hope theyâre beyond sick to their stomachs, but after this week I doubt they even have souls.</t>
+  </si>
+  <si>
+    <t>TOR I think is compromised. A lot of exit nodes are controlled by the government.VPNs also don't work very well. Something encrypted like signal is probably best.</t>
+  </si>
+  <si>
+    <t>This is what I love to see on r/bestofprotests that is rare material. I really hope this wasnât the cop that quit afterwards... good cop</t>
+  </si>
+  <si>
+    <t>There should be an efficient way to ensure they're all collected, it'll be a pain to crawl through it all later.   Also, there should be a community count of missing protesters to ensure everyone gets home safely and fast.</t>
+  </si>
+  <si>
+    <t>Iâm in a suburb of Tampa, my town is protesting as we speak. Iâm one of the people to call for bail if needed. I hope there are many more like Riverview.</t>
+  </si>
+  <si>
+    <t>u/indil47San Antonio: [KSAT12 News](https://www.ksat.com/)City: San Antonio, TXAffiliation: ABCCallsign: KSAT&amp;#x200B;[NEWS4SA](https://news4sanantonio.com/)City: San Antonio, TXAffiliation: NBCCallsign: WOAI&amp;#x200B;[KENS5](https://kens5.com)City: San Antonio, TXAffiliation: CBSCallsign: KENSThere is a local FOX affiliate in San Antonio, but their contact page does not seem to be working.</t>
+  </si>
+  <si>
+    <t>It's a good question.  Though it's not the most active of subs, it may be worth asking over in /r/UnitedNations .</t>
+  </si>
+  <si>
+    <t>City: Juneau, Affiliation: Independent, Call Sign: KTOOCity: Juneau, Affiliation: ABC, Call Sign: KINYCity: Anchorage, Affiliation: NBC, Call Sign: KTUUCity: Anchorage, Affiliation: Denali Media (?), Call Sign: KTVAAlaska seems to be pretty out of touch with everything that happens in the rest of the country. If anyone has any good advice on how I can get Alaskans involved I'd love to hear it. I, for one, feel pretty isolated up here and want to do whatever I can to help the movement at large.</t>
+  </si>
+  <si>
+    <t>Thank you. Iâm from Calgary. Would it be worth doing? Or can I help you do the same for calgary since youâve already worked out on how to do it? I can help get some contacts for you</t>
+  </si>
+  <si>
+    <t>It's the thought that counts!  We're going to put a new call out for volunteers later this evening, so keep an eye out for a new pinned post.</t>
+  </si>
+  <si>
+    <t>I know there are things like mesh networks and other wifi protocols that help in places and situations where ISP access is spotty, but I'm not sure how well something like that will work if \*all\* internet access is cut off. That will help people on the ground and in the field, but for those of us who are in remote places far removed from where the action is taking place, we'll be in the dark.</t>
+  </si>
+  <si>
+    <t>Fire chat has been pulled from Google play because it allows texting without internet access, that means there are getting ready to cut communication</t>
+  </si>
+  <si>
+    <t>I can't believe I forgot about HAM. Is it possible to get into HAM on a wage slave's income? =P I've been getting into electronics lately so this would be a good outlet for that energy as well as making sure I'm able to stay connected if the worst happens.</t>
+  </si>
+  <si>
+    <t>Signal has an option I haven't used it yet, also In Hong Kong they use Bridgefy I just installed it and I didn't like they want to charge a fee</t>
+  </si>
+  <si>
+    <t>I wonder if you can work out a way to report the worst cases (e.g. those violently attacking non-threatening non-resistive protesters pre-curfew) to Child Protective Services in case there are kids living with them. Those are actions taken in public while they know they are being videotaped, god knows what they're willing to do when no one's watching.It's not about retribution, it's about safety. I wouldn't want them anywhere near my family.</t>
+  </si>
+  <si>
+    <t>Hey, I'm interested in helping. I'm a designer and built a simple tool for accepting submissions from previous protests, which were stored in a database. The missing ingredient was that we didn't have any of the back end analyzing metadata.I'd love to contribute where I canâI'm a solid copywriter, and currently work in software product management / design. Let me know how I can get involved.</t>
+  </si>
+  <si>
+    <t>No man, this was a hell of job and makes us very easy to backup documentation about the happenings. I hope it will be up to date so we can clone it periodically. Good idea, nice job!</t>
+  </si>
+  <si>
+    <t>Yeah we're working on it. We want to keep it on the level of helping people, not hurting people or inciting even more violence. While these guys are working on the back end, maybe it's possible to plug it into the front end you guys are already working on? This would be great. I'm not a tech dude, so I don't know what all is involved in that, but y'all probably do.Can I DM you? I can put one or a couple of you (mods) in touch with the team. We have a discord up but obviously we don't want hundreds of people descending upon it. We need to keep it organized and focused.</t>
+  </si>
+  <si>
+    <t>Why isn't an immediate end to to war on drugs on this list? It is the cause of a lot of these problems, especially the horrific no-knock raids.I'm not a very politically educated person so I don't know exactly how much of this would work but on a general level, If it were up to me I would call for:-The immediate decriminalization of all drugs and a case by case review of all prisoners currently in jail for non-violent and possession related drug charges and the release of most.-The same as above but for pending drug cases.-The federal legalization of marijuana by executive order.-The reallocation of resources slated for anti-drug police efforts into the establishment of free clinics, treatment centers and addiction rehabilitation programs as well as the establishment of job training/locating and reintegration programs for ex-inmates and people suffering from homelessness in addition to more funds for free/affordable housing communities to start to deal with the issues of homelessness in America.Obviously the implementation of these is beyond by ability to talk about but those are some things I would like to see.</t>
+  </si>
+  <si>
+    <t>It's called a reverse onus. The way you are applying it would be unconstitutional and wouldn't offer much benefit because the standards for conviction wouldn't change.</t>
+  </si>
+  <si>
+    <t>I get that, but the Hong Kong protestors still haven't gotten their demands met and flooding their tag with US stuff would only end up hurting them.</t>
+  </si>
+  <si>
+    <t>2 doesnât work, the purpose is to *revoke* their licensure and prevent them from being anything but a mall cop elsewhere.Iâd go with âMandatory LEO Licenseâ</t>
+  </si>
+  <si>
+    <t>Please keep yourself and your baby safe. There are other ways to contribute that do not put you at risk - most cities have started mutual aid and food bank style things and that is a MUCH safer way to be involved. Go in peace</t>
+  </si>
+  <si>
+    <t>If not, it's a wonderful thing to start. No one in the Twin Cities is hungry, without toiletries or other necessities like diapers, and it's all because of wonderful people opening up their homes and businesses to donations for public use. I hope they become a permanent fixture in American life, honestly.</t>
+  </si>
+  <si>
+    <t>Someone recommended youtube-dl to me earlier today, which is for PC. I haven't used it yet, but I'm told it works for a few hundred sites, not just YouTube</t>
+  </si>
+  <si>
+    <t>Im pretty sure ambulances can't get into the area until it's secured and safe so that's a big reason why ambulances and firefighters aren't able to come help if the protesting/riots are still happening right there. It just isn't safe.</t>
+  </si>
+  <si>
+    <t>Some people are making formal complaints to the UN, but something tells me there won't be any blue helmets coming to stick up for us any time soon.</t>
+  </si>
+  <si>
+    <t>Can confirm, I've seen it, too. I don't understand why they are so aggressive. If they are trained to de-escalate, why don't they at least tell the person they are being arrested and put their hands behind their back?</t>
+  </si>
+  <si>
+    <t>Thanks for compiling this, by the way.This situation is such a fucking nightmare. It's enough to bring a person to tears.I feel sorry for the protestors right in the thick of it getting beaten on by cops.</t>
+  </si>
+  <si>
+    <t>I will get working on that as soon as I can. People need to see all the police reactions - both good and bad. It highlights the best and worst of our system.</t>
+  </si>
+  <si>
+    <t>Have you seen the impromptu speech Killer Mike gave to the people of Atlanta? He is super eloquent and had some amazing points.</t>
+  </si>
+  <si>
+    <t>Theyâre getting a bonus (hazard pay overtime,) to beat and shoot at the people that pay them. Cops are a parasite.</t>
+  </si>
+  <si>
+    <t>I canât help but think this is what they want. An excuse for EXTREME escalation. Why else would so many be doing this during an already sensitive time. It is so sad, so so sad.</t>
+  </si>
+  <si>
+    <t>Holy shit, there's just so much going on. I am unfortunately not from America so i didn't knew how much of a big fucking problem this is. Nobody in my country talks about this. I wish you good luck America :&lt; i hope everything will end up good and this will end soon. This should end. Worse is that nobody talks about it, and when somebody mentions it it's something like "oh ye people do protests becoase some police guy killed black guy" and that all. I really hope that this will get solved as soon as possible before more people get hurt / killed.I'll go sign some petitions and donate. I hope it helps at least a bit.</t>
   </si>
   <si>
     <t>2020PoliceBrutality</t>
   </si>
   <si>
-    <t>How do you cope with the emotions of subscribing to this sub? [2020PoliceBrutality]</t>
-  </si>
-  <si>
-    <t>Not punch you in the face violence, but police brutality none the less. Seattle, WA</t>
-  </si>
-  <si>
-    <t>Traumatic experience remembered.</t>
-  </si>
-  <si>
-    <t>Death of a Nation</t>
-  </si>
-  <si>
-    <t>What should the cops do if a suspect refuses to comply?</t>
-  </si>
-  <si>
-    <t>George Floyd Animation - I created an animation of the Police Brutality that led to George's Death. It also shows the mechanism of death that is described by the family autopsy.</t>
-  </si>
-  <si>
-    <t>Updates From The Team at 2020PoliceBrutality Project</t>
-  </si>
-  <si>
-    <t>Last Week Tonight was good this week. Police Brutality.</t>
-  </si>
-  <si>
-    <t>Charge the Police Chief as well</t>
-  </si>
-  <si>
-    <t>ICE is conducting chemical warfare on its concentration camp victims under the guise of sanitation. They are doing it on purpose, this is slowly turning into a Death Camp. We are crossing or have crossed from stage 8 to stage 9 of Genocide.</t>
-  </si>
-  <si>
-    <t>Co-opting hashtags</t>
-  </si>
-  <si>
-    <t>Brandon Saenz, 26, Police Brutality Victim. He lost the eye, several teeth &amp;amp; had facial fractures.</t>
-  </si>
-  <si>
-    <t>Who pays for police brutality lawsuits? The cost of litigation and the amount awarded to victims?</t>
-  </si>
-  <si>
-    <t>Police brutally beat unarmed crowd after instigating confrontation by shoving a baton in a civilian's throat. June 1st Parkway</t>
-  </si>
-  <si>
-    <t>lunar_limbo</t>
-  </si>
-  <si>
-    <t>nnklove</t>
-  </si>
-  <si>
-    <t>StuckAtHomeCorona</t>
-  </si>
-  <si>
-    <t>brokeinOC</t>
-  </si>
-  <si>
-    <t>inward_acct</t>
-  </si>
-  <si>
-    <t>RhoosterDiesel</t>
-  </si>
-  <si>
-    <t>clattercrashcrack</t>
-  </si>
-  <si>
-    <t>blessed_vagabundo</t>
-  </si>
-  <si>
-    <t>zdog234</t>
-  </si>
-  <si>
-    <t>aljohi</t>
-  </si>
-  <si>
-    <t>obesepercent</t>
-  </si>
-  <si>
-    <t>Trauma-Dolll</t>
-  </si>
-  <si>
-    <t>drmjm2004</t>
-  </si>
-  <si>
-    <t>ttystikk</t>
-  </si>
-  <si>
-    <t>oberon</t>
-  </si>
-  <si>
-    <t>DrDeadCrash</t>
-  </si>
-  <si>
-    <t>Bgratz77</t>
-  </si>
-  <si>
-    <t>410757864531DEADCOPS</t>
-  </si>
-  <si>
-    <t>ohwhattarelief</t>
-  </si>
-  <si>
-    <t>NessieAvery</t>
-  </si>
-  <si>
-    <t>117ColeS</t>
-  </si>
-  <si>
-    <t>tokenredguy</t>
-  </si>
-  <si>
-    <t>OlGangaLee</t>
-  </si>
-  <si>
-    <t>Ventrical</t>
-  </si>
-  <si>
-    <t>slayer_of_idiots</t>
-  </si>
-  <si>
-    <t>mamacherebear</t>
-  </si>
-  <si>
-    <t>samus12345</t>
-  </si>
-  <si>
-    <t>DraconicMagia</t>
-  </si>
-  <si>
-    <t>Gulistan_</t>
-  </si>
-  <si>
-    <t>B0tRank</t>
-  </si>
-  <si>
-    <t>maketitiwithweewee</t>
-  </si>
-  <si>
-    <t>HammerTh_1701</t>
-  </si>
-  <si>
-    <t>goldswimmerb</t>
-  </si>
-  <si>
-    <t>Whoops2805</t>
-  </si>
-  <si>
-    <t>avocadotitz</t>
-  </si>
-  <si>
-    <t>Elseto</t>
-  </si>
-  <si>
-    <t>CMDR_Squashface</t>
-  </si>
-  <si>
-    <t>3thaddict</t>
+    <t>Gang of bikers brutally beat peaceful protesters</t>
+  </si>
+  <si>
+    <t>I just wanted to take a moment to share with you guys, our recent updates, and crucial next steps for 2020PoliceBrutality Project.</t>
+  </si>
+  <si>
+    <t>I have a theory regarding the police brutality all over the country</t>
+  </si>
+  <si>
+    <t>Reminder: Cops monitor any group that's anti-Trump or anti-Cop or just too leftist.</t>
+  </si>
+  <si>
+    <t>Not brutality. But definitely worth taking note of.</t>
+  </si>
+  <si>
+    <t>[MegaThread] Current incident reports list &amp; Contribution Guide</t>
+  </si>
+  <si>
+    <t>Police Brutality in the suburbs and other areas.</t>
+  </si>
+  <si>
+    <t>CALL FOR VOLUNTEERS - PLEASE REACH OUT TO YOUR LOCAL NEWS MEDIA!</t>
+  </si>
+  <si>
+    <t>How long until internet service in the US is broadly disrupted, and how are we going to stay informed without it?</t>
+  </si>
+  <si>
+    <t>We're bringing A.I. into this.</t>
+  </si>
+  <si>
+    <t>r/2020PoliceBrutality Github Repo | Better Organization &amp; Contribution Guide</t>
+  </si>
+  <si>
+    <t>5 DEMANDS, NOT ONE LESS</t>
+  </si>
+  <si>
+    <t>My Police Brutality Story, from Minneapolis</t>
+  </si>
+  <si>
+    <t>Searching for (imo) the #1 worst brutality instance in the last few days. Iâm worried itâs gone.</t>
+  </si>
+  <si>
+    <t>Does the Geneva Convention apply?</t>
+  </si>
+  <si>
+    <t>POLICE BRUTALITY DURING PROTESTS - PLEASE SPREAD FAR AND WIDE</t>
+  </si>
+  <si>
+    <t>[Inquiry] I feel the protesters need a proper, new-age "I have a Dream" esque speech to unite the country behind them peacefully. I'd like your input.</t>
+  </si>
+  <si>
+    <t>Disgusting police brutality compilation [2.00]</t>
+  </si>
+  <si>
+    <t>[Mega Thread] Compilation of police brutality videos from the protests this weekend.</t>
+  </si>
+  <si>
+    <t>RandallSkeffington</t>
+  </si>
+  <si>
+    <t>notimeforniceties</t>
+  </si>
+  <si>
+    <t>Gallaga07</t>
+  </si>
+  <si>
+    <t>phunnypharm</t>
+  </si>
+  <si>
+    <t>JFKPeekGlaz</t>
   </si>
   <si>
     <t>steelerfaninperu</t>
   </si>
   <si>
-    <t>jjdiablo</t>
-  </si>
-  <si>
-    <t>EastBaked</t>
-  </si>
-  <si>
-    <t>dirtygymsock</t>
-  </si>
-  <si>
-    <t>Rileyswims</t>
-  </si>
-  <si>
-    <t>2020-07-27 2:16</t>
-  </si>
-  <si>
-    <t>2020-08-26 16:07</t>
-  </si>
-  <si>
-    <t>2020-07-13 7:43</t>
-  </si>
-  <si>
-    <t>2020-07-13 2:16</t>
-  </si>
-  <si>
-    <t>2020-07-03 1:00</t>
-  </si>
-  <si>
-    <t>2020-07-03 6:02</t>
-  </si>
-  <si>
-    <t>2020-07-03 8:59</t>
-  </si>
-  <si>
-    <t>2020-07-03 0:24</t>
-  </si>
-  <si>
-    <t>2020-07-03 4:44</t>
-  </si>
-  <si>
-    <t>2020-07-03 14:47</t>
-  </si>
-  <si>
-    <t>2020-07-03 8:47</t>
-  </si>
-  <si>
-    <t>2020-07-03 4:48</t>
-  </si>
-  <si>
-    <t>2020-07-04 3:01</t>
-  </si>
-  <si>
-    <t>2020-06-22 0:07</t>
-  </si>
-  <si>
-    <t>2020-06-22 19:49</t>
-  </si>
-  <si>
-    <t>2020-06-21 17:59</t>
-  </si>
-  <si>
-    <t>2020-06-22 18:09</t>
-  </si>
-  <si>
-    <t>2020-06-27 22:19</t>
-  </si>
-  <si>
-    <t>2020-06-22 14:40</t>
-  </si>
-  <si>
-    <t>2020-06-12 23:30</t>
-  </si>
-  <si>
-    <t>2020-06-13 17:06</t>
-  </si>
-  <si>
-    <t>2020-06-12 22:02</t>
-  </si>
-  <si>
-    <t>2020-06-13 12:41</t>
-  </si>
-  <si>
-    <t>2020-06-13 23:08</t>
-  </si>
-  <si>
-    <t>2020-06-12 22:17</t>
-  </si>
-  <si>
-    <t>2020-06-13 14:38</t>
-  </si>
-  <si>
-    <t>2020-06-14 0:23</t>
-  </si>
-  <si>
-    <t>2020-06-14 6:16</t>
-  </si>
-  <si>
-    <t>2020-06-14 6:18</t>
-  </si>
-  <si>
-    <t>2020-06-11 19:31</t>
-  </si>
-  <si>
-    <t>2020-06-11 22:51</t>
-  </si>
-  <si>
-    <t>2020-06-11 23:30</t>
-  </si>
-  <si>
-    <t>2020-06-11 16:38</t>
-  </si>
-  <si>
-    <t>2020-06-11 18:48</t>
-  </si>
-  <si>
-    <t>2020-06-12 17:26</t>
-  </si>
-  <si>
-    <t>2020-06-09 20:17</t>
-  </si>
-  <si>
-    <t>2020-06-09 7:01</t>
-  </si>
-  <si>
-    <t>2020-06-09 20:12</t>
-  </si>
-  <si>
-    <t>2020-06-08 20:23</t>
-  </si>
-  <si>
-    <t>2020-06-07 7:26</t>
-  </si>
-  <si>
-    <t>2020-06-07 18:22</t>
-  </si>
-  <si>
-    <t>2020-06-07 16:46</t>
-  </si>
-  <si>
-    <t>2020-06-07 18:43</t>
-  </si>
-  <si>
-    <t>2020-06-07 15:47</t>
-  </si>
-  <si>
-    <t>2020-06-07 7:56</t>
-  </si>
-  <si>
-    <t>2020-06-07 3:30</t>
-  </si>
-  <si>
-    <t>2020-06-06 14:20</t>
-  </si>
-  <si>
-    <t>2020-06-06 16:31</t>
-  </si>
-  <si>
-    <t>2020-06-06 19:12</t>
-  </si>
-  <si>
-    <t>2020-06-05 20:20</t>
+    <t>Endaarr</t>
+  </si>
+  <si>
+    <t>Tanks-Your-Face</t>
+  </si>
+  <si>
+    <t>tonyd5214</t>
+  </si>
+  <si>
+    <t>XFX_Samsung</t>
+  </si>
+  <si>
+    <t>WhoIsBrowsingAtWork</t>
+  </si>
+  <si>
+    <t>CutMonster</t>
+  </si>
+  <si>
+    <t>OwlSinger189</t>
+  </si>
+  <si>
+    <t>Foolhearted</t>
+  </si>
+  <si>
+    <t>ahh-potatoes</t>
+  </si>
+  <si>
+    <t>unluckyparadox</t>
+  </si>
+  <si>
+    <t>majora2007</t>
+  </si>
+  <si>
+    <t>Piorz</t>
+  </si>
+  <si>
+    <t>MissNeona</t>
+  </si>
+  <si>
+    <t>meeshrox</t>
+  </si>
+  <si>
+    <t>epikplayer</t>
+  </si>
+  <si>
+    <t>indil47</t>
+  </si>
+  <si>
+    <t>Guadaloope</t>
+  </si>
+  <si>
+    <t>sp_tothemax</t>
+  </si>
+  <si>
+    <t>dzScritches</t>
+  </si>
+  <si>
+    <t>AlphaMari0</t>
+  </si>
+  <si>
+    <t>BeagleBoxer</t>
+  </si>
+  <si>
+    <t>gniknosmirceht</t>
+  </si>
+  <si>
+    <t>gecikopter</t>
+  </si>
+  <si>
+    <t>blammotheclown</t>
+  </si>
+  <si>
+    <t>Human0463</t>
+  </si>
+  <si>
+    <t>aceandfox</t>
+  </si>
+  <si>
+    <t>Blue-Jay27</t>
+  </si>
+  <si>
+    <t>Star_Couch</t>
+  </si>
+  <si>
+    <t>justice4georgefloyd</t>
+  </si>
+  <si>
+    <t>Zaquarius_Alfonzo</t>
+  </si>
+  <si>
+    <t>Kpofasho87</t>
+  </si>
+  <si>
+    <t>raulgs</t>
+  </si>
+  <si>
+    <t>robinthebank</t>
+  </si>
+  <si>
+    <t>Lucifronz</t>
+  </si>
+  <si>
+    <t>AmbivalentAsshole</t>
+  </si>
+  <si>
+    <t>KPSTL33</t>
+  </si>
+  <si>
+    <t>Nunyrgarza</t>
+  </si>
+  <si>
+    <t>PersonalSloth</t>
+  </si>
+  <si>
+    <t>Eggplant_Sucks</t>
+  </si>
+  <si>
+    <t>2020-06-06 0:06</t>
+  </si>
+  <si>
+    <t>2020-06-05 19:17</t>
+  </si>
+  <si>
+    <t>2020-06-05 21:40</t>
+  </si>
+  <si>
+    <t>2020-06-07 21:52</t>
+  </si>
+  <si>
+    <t>2020-06-05 5:19</t>
+  </si>
+  <si>
+    <t>2020-06-05 15:49</t>
+  </si>
+  <si>
+    <t>2020-06-05 20:09</t>
+  </si>
+  <si>
+    <t>2020-06-06 4:35</t>
+  </si>
+  <si>
+    <t>2020-06-06 14:41</t>
+  </si>
+  <si>
+    <t>2020-06-06 22:18</t>
+  </si>
+  <si>
+    <t>2020-06-05 16:54</t>
+  </si>
+  <si>
+    <t>2020-06-06 3:55</t>
+  </si>
+  <si>
+    <t>2020-06-06 5:41</t>
+  </si>
+  <si>
+    <t>2020-06-06 16:44</t>
+  </si>
+  <si>
+    <t>2020-06-04 23:33</t>
+  </si>
+  <si>
+    <t>2020-06-03 12:07</t>
+  </si>
+  <si>
+    <t>2020-06-03 22:00</t>
+  </si>
+  <si>
+    <t>2020-06-03 14:31</t>
+  </si>
+  <si>
+    <t>2020-06-04 0:03</t>
+  </si>
+  <si>
+    <t>2020-06-03 12:16</t>
+  </si>
+  <si>
+    <t>2020-06-03 0:19</t>
+  </si>
+  <si>
+    <t>2020-06-04 1:12</t>
+  </si>
+  <si>
+    <t>2020-06-05 3:30</t>
+  </si>
+  <si>
+    <t>2020-06-03 17:20</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:43</t>
+  </si>
+  <si>
+    <t>2020-06-05 3:28</t>
+  </si>
+  <si>
+    <t>2020-06-02 22:25</t>
+  </si>
+  <si>
+    <t>2020-06-04 11:17</t>
+  </si>
+  <si>
+    <t>2020-06-02 23:59</t>
+  </si>
+  <si>
+    <t>2020-06-04 14:33</t>
+  </si>
+  <si>
+    <t>2020-06-04 8:38</t>
+  </si>
+  <si>
+    <t>2020-06-02 22:58</t>
+  </si>
+  <si>
+    <t>2020-06-02 19:53</t>
+  </si>
+  <si>
+    <t>2020-06-02 18:00</t>
+  </si>
+  <si>
+    <t>2020-06-04 6:34</t>
+  </si>
+  <si>
+    <t>2020-06-04 3:13</t>
+  </si>
+  <si>
+    <t>2020-06-02 19:12</t>
+  </si>
+  <si>
+    <t>2020-06-02 16:29</t>
+  </si>
+  <si>
+    <t>2020-06-02 0:26</t>
+  </si>
+  <si>
+    <t>2020-06-02 0:29</t>
+  </si>
+  <si>
+    <t>2020-06-02 9:38</t>
+  </si>
+  <si>
+    <t>2020-06-01 18:38</t>
+  </si>
+  <si>
+    <t>2020-06-02 13:16</t>
+  </si>
+  <si>
+    <t>2020-06-01 17:41</t>
+  </si>
+  <si>
+    <t>2020-06-02 10:17</t>
+  </si>
+  <si>
+    <t>2020-06-01 6:19</t>
+  </si>
+  <si>
+    <t>2020-06-01 2:16</t>
+  </si>
+  <si>
+    <t>2020-06-01 7:35</t>
+  </si>
+  <si>
+    <t>2020-05-31 20:22</t>
+  </si>
+  <si>
+    <t>2020-05-31 22:58</t>
   </si>
 </sst>
 </file>
@@ -900,10 +921,10 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -920,10 +941,10 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -940,10 +961,10 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -960,10 +981,10 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -980,10 +1001,10 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1000,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1020,10 +1041,10 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1040,10 +1061,10 @@
         <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1060,10 +1081,10 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1080,13 +1101,13 @@
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1100,10 +1121,10 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1120,13 +1141,13 @@
         <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1140,10 +1161,10 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1157,13 +1178,13 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1180,10 +1201,10 @@
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1200,10 +1221,10 @@
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1220,10 +1241,10 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1240,10 +1261,10 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1257,13 +1278,13 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1277,13 +1298,13 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1297,13 +1318,13 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1317,13 +1338,13 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1337,13 +1358,13 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1357,13 +1378,13 @@
         <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1377,13 +1398,13 @@
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1397,16 +1418,16 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1417,13 +1438,13 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1437,13 +1458,13 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1457,13 +1478,13 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1477,13 +1498,13 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1497,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1517,13 +1538,13 @@
         <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1537,13 +1558,13 @@
         <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1557,13 +1578,13 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1577,10 +1598,13 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1594,13 +1618,13 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1614,13 +1638,13 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1634,13 +1658,13 @@
         <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1654,13 +1678,13 @@
         <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1674,13 +1698,13 @@
         <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1694,16 +1718,16 @@
         <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1714,13 +1738,13 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1734,13 +1758,13 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1754,13 +1778,13 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1774,13 +1798,13 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1794,13 +1818,13 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1814,16 +1838,16 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1834,13 +1858,13 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1854,13 +1878,13 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1874,13 +1898,13 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F51">
         <v>1</v>

--- a/Reddit_p3.xlsx
+++ b/Reddit_p3.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiawei/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AA2EC7-84F8-1644-A8A1-DD8D67EA5856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="35320" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -532,8 +538,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +551,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -585,17 +598,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -642,7 +673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,9 +705,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,6 +757,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,15 +950,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="106.1640625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -910,8 +983,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -930,8 +1003,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -950,8 +1023,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -970,8 +1043,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -986,12 +1059,12 @@
       <c r="E5" t="s">
         <v>124</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1010,8 +1083,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -1030,8 +1103,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -1050,8 +1123,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -1070,8 +1143,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
@@ -1090,28 +1163,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
@@ -1130,8 +1203,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
@@ -1150,28 +1223,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -1190,8 +1263,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
@@ -1210,8 +1283,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
@@ -1230,8 +1303,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
@@ -1250,28 +1323,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
@@ -1290,8 +1363,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
@@ -1310,8 +1383,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
@@ -1330,48 +1403,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
@@ -1390,48 +1463,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
@@ -1450,68 +1523,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
@@ -1530,8 +1603,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
@@ -1550,8 +1623,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
@@ -1570,8 +1643,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
@@ -1590,8 +1663,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
@@ -1610,8 +1683,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
@@ -1630,8 +1703,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
@@ -1650,8 +1723,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
@@ -1670,8 +1743,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
@@ -1690,8 +1763,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
@@ -1710,8 +1783,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
@@ -1730,8 +1803,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
@@ -1750,28 +1823,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
@@ -1790,8 +1863,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+    <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
@@ -1810,8 +1883,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+    <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
@@ -1830,8 +1903,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
@@ -1850,8 +1923,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
@@ -1870,8 +1943,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+    <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
@@ -1890,8 +1963,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
+    <row r="51" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
